--- a/イベント一覧_結合テスト.xlsx
+++ b/イベント一覧_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8579DB-BA90-4CB7-882B-62833CDCE4F2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02DBD45C-E16C-4921-BBFE-1E9C895C4C02}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント一覧画面" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1922,6 +1922,16 @@
     <t>1.削除されたイベントにidでアクセスする</t>
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3137,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3189,7 +3199,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3244,7 +3254,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3282,7 +3292,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3333,7 +3343,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3384,7 +3394,7 @@
         <v>122</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -3422,7 +3432,7 @@
         <v>123</v>
       </c>
       <c r="G18" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -3460,7 +3470,7 @@
         <v>124</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -3511,7 +3521,7 @@
         <v>125</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -3551,7 +3561,7 @@
         <v>127</v>
       </c>
       <c r="G25" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -3587,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="G27" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -3617,13 +3627,13 @@
         <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="3">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -3676,7 +3686,7 @@
         <v>111</v>
       </c>
       <c r="G32" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -3712,7 +3722,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3763,7 +3773,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3818,7 +3828,7 @@
         <v>129</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3856,7 +3866,7 @@
         <v>131</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3905,7 +3915,7 @@
         <v>117</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3935,13 +3945,13 @@
         <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -3994,7 +4004,7 @@
         <v>111</v>
       </c>
       <c r="G18" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -4030,7 +4040,7 @@
         <v>119</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
